--- a/LettersKey.xlsx
+++ b/LettersKey.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="LibroPrimo" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="LibroSecondo" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="229">
   <si>
     <t>File Name</t>
   </si>
@@ -437,6 +438,267 @@
   </si>
   <si>
     <t>A frate Guglielmo d'Inghilterra, de' frati eremiti di Sant'Agostino</t>
+  </si>
+  <si>
+    <t>Lettere_001</t>
+  </si>
+  <si>
+    <t>A Romano linaiuolo alla compagnia del Bigallo in Firenze</t>
+  </si>
+  <si>
+    <t>A frate Giovanni di Bindo di Doccio de'frati di Monte Oliveto</t>
+  </si>
+  <si>
+    <t>Al venerabile religioso frate Guglielino d'Inghilterra, il quale era baccelliere dell'ordine de' frati eremitani di Santo Agostino, a Selva di Lago</t>
+  </si>
+  <si>
+    <t>A frate Niccolo da Monte Alcino dell'ordine de' frati predicatori</t>
+  </si>
+  <si>
+    <t>A Niccolo povero, di Romagna, romito a Firenze</t>
+  </si>
+  <si>
+    <t>A suora Costanza monaca del monasterio di San Abundio appresso Siena</t>
+  </si>
+  <si>
+    <t>A Francesca di Francesco di Tolomei vestita dell'abito di San Domenico, inferma</t>
+  </si>
+  <si>
+    <t>A tre donne di Firenze</t>
+  </si>
+  <si>
+    <t>Al monasterio di San Gaggio in Firenze, e alla badessa e monache del monasterio, che e in Monte Sansovino</t>
+  </si>
+  <si>
+    <t>A Conte di Conte da Firenze, spirituale</t>
+  </si>
+  <si>
+    <t>A frate Filippo di Vannuccio, e a frate Niccolo di Pietro di Firenze, dell'ordine di Monte Oliveto</t>
+  </si>
+  <si>
+    <t>All'abadessa e monache di San Pietro, in Monticelli a Lignaia in Firenze</t>
+  </si>
+  <si>
+    <t>A maestro Giovanni Terzo dell'ordine de'frati eremitani di Santo Agostino</t>
+  </si>
+  <si>
+    <t>A monna Giovanna pazza</t>
+  </si>
+  <si>
+    <t>A Bartolo Usimbardi, e Francesco di Pipino da Firenze</t>
+  </si>
+  <si>
+    <t>A Pietro di Tommaso de' Bardi da Firenze</t>
+  </si>
+  <si>
+    <t>A madonna Laudomia, donna di Carlo delli Strozzi da Firenze</t>
+  </si>
+  <si>
+    <t>A monna Agnesa moglie di Pipino sarto</t>
+  </si>
+  <si>
+    <t>Ad Angelo da Ricasoli vescovo di Fiorenza</t>
+  </si>
+  <si>
+    <t>A monna Orsa donna di Bartolo Usimbardi, e a monna Agnesa donna di Francesco di Pipino sarto di Firenze</t>
+  </si>
+  <si>
+    <t>A frate Matteo di Francesco Tolomei dell'ordine de' predicatori</t>
+  </si>
+  <si>
+    <t>A certi giovani fiorentini, figliuoli adottivi di don Giovanni</t>
+  </si>
+  <si>
+    <t>All'abadessa del monastero di Santa Maria delli scalzi in Firenze</t>
+  </si>
+  <si>
+    <t>A monna Pavola da Siena, e alle sue discepole, quando stava a Fiesole</t>
+  </si>
+  <si>
+    <t>A uno spirituale in Firenze</t>
+  </si>
+  <si>
+    <t>A Neri di Landoccio de' Pagliaresi</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua dell'ordine dei predicatori</t>
+  </si>
+  <si>
+    <t>A Giacomo cardinale degli Orsini</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua dell'ordine de' predicatori</t>
+  </si>
+  <si>
+    <t>A Benuccio di Pietro, e Bernardo di misser Uberto de' Belforti da Volterra</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo, quando era ad Asciano</t>
+  </si>
+  <si>
+    <t>A Luisi di misser Luisi Gallerani da Siena in Asciano</t>
+  </si>
+  <si>
+    <t>A monna Giovanna di Capo e a Francesca in Siena</t>
+  </si>
+  <si>
+    <t>A frate Tommaso della Fonte dell'ordine de' predicatori in Siena</t>
+  </si>
+  <si>
+    <t>A monna Stricca, donna che fu di Cione di Sandro de' Salimbeni</t>
+  </si>
+  <si>
+    <t>A monna Biancina, donna che fu di Giovanni d'Agnolino Salimbeni</t>
+  </si>
+  <si>
+    <t>Alla contessa Benedetta figliuola di Giovanni d'Agnolino Salimbeni da Siena</t>
+  </si>
+  <si>
+    <t>A Pietro Canigiani in Firenze</t>
+  </si>
+  <si>
+    <t>Ad Agnolino di Giovanni d'Agnolino de' Salimbeni da Siena</t>
+  </si>
+  <si>
+    <t>A monna Isa, figliuola che fu di Giovanni d'Agnolino Salimbeni</t>
+  </si>
+  <si>
+    <t>A monna Pantasilea, donna di Ranuccio da Farnese</t>
+  </si>
+  <si>
+    <t>A monna Lapa sua madre, e a monna Cecca nel monasterio di Santa Agnesa di Montepulciano, quand'essa era alla rocca</t>
+  </si>
+  <si>
+    <t>A monna Catarina dello spedaluccio e a Giovanna di Capo in Siena</t>
+  </si>
+  <si>
+    <t>A monna Alessa vestita dell'abito di Santo Domenico, quando era alla rocca</t>
+  </si>
+  <si>
+    <t>A monna Rabe di Francesco de' Tolomei</t>
+  </si>
+  <si>
+    <t>A' signori difensori, e capitano del popolo della città si Siena, essendo essa a Sant'Antimo</t>
+  </si>
+  <si>
+    <t>A Salvi di misser Pietro, orafo in Siena</t>
+  </si>
+  <si>
+    <t>Alla contessa Benedetta figliuola di Giovanni d'Agnolino Salimbeni</t>
+  </si>
+  <si>
+    <t>All'abate Nunzio apostolico</t>
+  </si>
+  <si>
+    <t>A monna Alessia e a monna Cecca</t>
+  </si>
+  <si>
+    <t>A misser Matteo, Rettore della casa della misericordia di Siena</t>
+  </si>
+  <si>
+    <t>A madonna Nera priora delle mantellate di Santo Domenico, quando essa Caterina era alla rocca d'Agnolino</t>
+  </si>
+  <si>
+    <t>A frate Bartolommeo dell'ordine de'predicatori, in Fiorenza</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo Dominici, e a frate Tomaso d'Antonio dell'ordine de'predicatori quando erano a Pisa</t>
+  </si>
+  <si>
+    <t>A Gabriele di Divino Piccolomini</t>
+  </si>
+  <si>
+    <t>A monna Giovanna e altre figliuole in Siena</t>
+  </si>
+  <si>
+    <t>A Ipolito degli Ubertini di Firenze</t>
+  </si>
+  <si>
+    <t>A Bartolomeo e Jacomo, eremiti in campo santo in Pisa</t>
+  </si>
+  <si>
+    <t>A misser Pietro marchese del Monte</t>
+  </si>
+  <si>
+    <t>Alla Reina di Napoli</t>
+  </si>
+  <si>
+    <t>A Niccolo Soderini in Firenze</t>
+  </si>
+  <si>
+    <t>A frate Tomaso della Fonte dell'ordine de' predicatori in Siena</t>
+  </si>
+  <si>
+    <t>A misser Matteo Rettore della Chiesa della misericordia di Siena, mentre che essa era a Pisa</t>
+  </si>
+  <si>
+    <t>A don Giovanni de' Sabbatini da Bologna monaco dell'ordine della Certosa nel monasterio di Belriguardo, presso a Siena, quand'ella era a Pisa</t>
+  </si>
+  <si>
+    <t>Ad Angelo da Ricasoli</t>
+  </si>
+  <si>
+    <t>A misser Giovanni condottiero, e capo della compagnia che venne nel tempo della fame</t>
+  </si>
+  <si>
+    <t>Ai signori difensori della città di Siena</t>
+  </si>
+  <si>
+    <t>A monna Pavola a Fiesole</t>
+  </si>
+  <si>
+    <t>A Sano di Maco, essendo la Santa in Pisa</t>
+  </si>
+  <si>
+    <t>Lettere_073</t>
+  </si>
+  <si>
+    <t>Lettere_074</t>
+  </si>
+  <si>
+    <t>A Pietro marchese del Monte</t>
+  </si>
+  <si>
+    <t>Lettere_075</t>
+  </si>
+  <si>
+    <t>Alla Reina d'Ungheria, cioe alla madre del Re</t>
+  </si>
+  <si>
+    <t>Lettere_076</t>
+  </si>
+  <si>
+    <t>A frate Francesco Tebaldi di Fiorenza, nell'Isola di Gorgona, monaco certosino</t>
+  </si>
+  <si>
+    <t>Lettere_077</t>
+  </si>
+  <si>
+    <t>A monna Nella, donna che fu di Niccolo Buonconti da Pisa</t>
+  </si>
+  <si>
+    <t>Lettere_078</t>
+  </si>
+  <si>
+    <t>A misser Pietro Gambacorti in Pisa</t>
+  </si>
+  <si>
+    <t>Lettere_079</t>
+  </si>
+  <si>
+    <t>A Sano di Maco, essendo la Santa a Pisa la prima volta</t>
+  </si>
+  <si>
+    <t>Lettere_080</t>
+  </si>
+  <si>
+    <t>A Giovanni Trenta, e a monna Giovanna sua donna da Lucca</t>
+  </si>
+  <si>
+    <t>Lettere_081</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo Dominici dell'ordine de' predicatori quando era biblico di Fiorenza</t>
   </si>
 </sst>
 </file>
@@ -504,6 +766,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -1315,4 +1581,926 @@
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="37.86"/>
+    <col customWidth="1" min="3" max="3" width="47.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>HYPERLINK("http://www.ilpalio.siena.it/5/Personaggi/SantaCaterina/Lettere","Letter number, 1860 (in Roman Numerals)")</f>
+        <v>Letter number, 1860 (in Roman Numerals)</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3">
+        <v>72.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>76.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>77.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>74.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>78.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>81.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>82.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>83.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>84.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>79.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>89.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>97.0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>101.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3">
+        <v>102.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3">
+        <v>103.0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3">
+        <v>104.0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3">
+        <v>105.0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3">
+        <v>106.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3">
+        <v>107.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="3">
+        <v>108.0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="3">
+        <v>110.0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3">
+        <v>111.0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3">
+        <v>112.0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3">
+        <v>96.0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="3">
+        <v>114.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3">
+        <v>115.0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="3">
+        <v>116.0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3">
+        <v>117.0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3">
+        <v>118.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="3">
+        <v>119.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="3">
+        <v>120.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="3">
+        <v>121.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="3">
+        <v>122.0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="3">
+        <v>113.0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="3">
+        <v>109.0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="3">
+        <v>126.0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="3">
+        <v>125.0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="3">
+        <v>129.0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="3">
+        <v>127.0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="3">
+        <v>128.0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="3">
+        <v>132.0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="3">
+        <v>130.0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="3">
+        <v>134.0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="3">
+        <v>135.0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3">
+        <v>133.0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="3">
+        <v>131.0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="3">
+        <v>138.0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="3">
+        <v>139.0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="3">
+        <v>137.0</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="3">
+        <v>141.0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="3">
+        <v>136.0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="3">
+        <v>140.0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="3">
+        <v>144.0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="3">
+        <v>142.0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="3">
+        <v>143.0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="3">
+        <v>148.0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="3">
+        <v>145.0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="3">
+        <v>150.0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="3">
+        <v>151.0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="3">
+        <v>149.0</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" s="3">
+        <v>147.0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="3">
+        <v>152.0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="3">
+        <v>146.0</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/LettersKey.xlsx
+++ b/LettersKey.xlsx
@@ -5,14 +5,17 @@
   <sheets>
     <sheet state="visible" name="LibroPrimo" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="LibroSecondo" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="LibroTerzo" sheetId="3" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">LibroSecondo!$A$1:$C$82</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="295">
   <si>
     <t>File Name</t>
   </si>
@@ -446,19 +449,28 @@
     <t>A Romano linaiuolo alla compagnia del Bigallo in Firenze</t>
   </si>
   <si>
+    <t>A suora Costanza monaca del monasterio di San Abundio appresso Siena</t>
+  </si>
+  <si>
+    <t>A frate Niccolo da Monte Alcino dell'ordine de' frati predicatori</t>
+  </si>
+  <si>
+    <t>Al monasterio di San Gaggio in Firenze, e alla badessa e monache del monasterio, che e in Monte Sansovino</t>
+  </si>
+  <si>
     <t>A frate Giovanni di Bindo di Doccio de'frati di Monte Oliveto</t>
   </si>
   <si>
     <t>Al venerabile religioso frate Guglielino d'Inghilterra, il quale era baccelliere dell'ordine de' frati eremitani di Santo Agostino, a Selva di Lago</t>
   </si>
   <si>
-    <t>A frate Niccolo da Monte Alcino dell'ordine de' frati predicatori</t>
-  </si>
-  <si>
     <t>A Niccolo povero, di Romagna, romito a Firenze</t>
   </si>
   <si>
-    <t>A suora Costanza monaca del monasterio di San Abundio appresso Siena</t>
+    <t>All'abadessa e monache di San Pietro, in Monticelli a Lignaia in Firenze</t>
+  </si>
+  <si>
+    <t>A maestro Giovanni Terzo dell'ordine de'frati eremitani di Santo Agostino</t>
   </si>
   <si>
     <t>A Francesca di Francesco di Tolomei vestita dell'abito di San Domenico, inferma</t>
@@ -467,37 +479,34 @@
     <t>A tre donne di Firenze</t>
   </si>
   <si>
-    <t>Al monasterio di San Gaggio in Firenze, e alla badessa e monache del monasterio, che e in Monte Sansovino</t>
-  </si>
-  <si>
     <t>A Conte di Conte da Firenze, spirituale</t>
   </si>
   <si>
     <t>A frate Filippo di Vannuccio, e a frate Niccolo di Pietro di Firenze, dell'ordine di Monte Oliveto</t>
   </si>
   <si>
-    <t>All'abadessa e monache di San Pietro, in Monticelli a Lignaia in Firenze</t>
-  </si>
-  <si>
-    <t>A maestro Giovanni Terzo dell'ordine de'frati eremitani di Santo Agostino</t>
+    <t>A Pietro di Tommaso de' Bardi da Firenze</t>
+  </si>
+  <si>
+    <t>All'abadessa del monastero di Santa Maria delli scalzi in Firenze</t>
   </si>
   <si>
     <t>A monna Giovanna pazza</t>
   </si>
   <si>
+    <t>Ad Angelo da Ricasoli vescovo di Fiorenza</t>
+  </si>
+  <si>
     <t>A Bartolo Usimbardi, e Francesco di Pipino da Firenze</t>
   </si>
   <si>
-    <t>A Pietro di Tommaso de' Bardi da Firenze</t>
-  </si>
-  <si>
     <t>A madonna Laudomia, donna di Carlo delli Strozzi da Firenze</t>
   </si>
   <si>
     <t>A monna Agnesa moglie di Pipino sarto</t>
   </si>
   <si>
-    <t>Ad Angelo da Ricasoli vescovo di Fiorenza</t>
+    <t>A uno spirituale in Firenze</t>
   </si>
   <si>
     <t>A monna Orsa donna di Bartolo Usimbardi, e a monna Agnesa donna di Francesco di Pipino sarto di Firenze</t>
@@ -509,13 +518,13 @@
     <t>A certi giovani fiorentini, figliuoli adottivi di don Giovanni</t>
   </si>
   <si>
-    <t>All'abadessa del monastero di Santa Maria delli scalzi in Firenze</t>
+    <t>A Pietro Canigiani in Firenze</t>
   </si>
   <si>
     <t>A monna Pavola da Siena, e alle sue discepole, quando stava a Fiesole</t>
   </si>
   <si>
-    <t>A uno spirituale in Firenze</t>
+    <t>A frate Tommaso della Fonte dell'ordine de' predicatori in Siena</t>
   </si>
   <si>
     <t>A Neri di Landoccio de' Pagliaresi</t>
@@ -542,7 +551,7 @@
     <t>A monna Giovanna di Capo e a Francesca in Siena</t>
   </si>
   <si>
-    <t>A frate Tommaso della Fonte dell'ordine de' predicatori in Siena</t>
+    <t>All'abate Nunzio apostolico</t>
   </si>
   <si>
     <t>A monna Stricca, donna che fu di Cione di Sandro de' Salimbeni</t>
@@ -554,7 +563,7 @@
     <t>Alla contessa Benedetta figliuola di Giovanni d'Agnolino Salimbeni da Siena</t>
   </si>
   <si>
-    <t>A Pietro Canigiani in Firenze</t>
+    <t>Alla contessa Benedetta figliuola di Giovanni d'Agnolino Salimbeni</t>
   </si>
   <si>
     <t>Ad Agnolino di Giovanni d'Agnolino de' Salimbeni da Siena</t>
@@ -584,34 +593,37 @@
     <t>A Salvi di misser Pietro, orafo in Siena</t>
   </si>
   <si>
-    <t>Alla contessa Benedetta figliuola di Giovanni d'Agnolino Salimbeni</t>
-  </si>
-  <si>
-    <t>All'abate Nunzio apostolico</t>
+    <t>Ai signori difensori della città di Siena</t>
+  </si>
+  <si>
+    <t>A misser Matteo, Rettore della casa della misericordia di Siena</t>
+  </si>
+  <si>
+    <t>A madonna Nera priora delle mantellate di Santo Domenico, quando essa Caterina era alla rocca d'Agnolino</t>
   </si>
   <si>
     <t>A monna Alessia e a monna Cecca</t>
   </si>
   <si>
-    <t>A misser Matteo, Rettore della casa della misericordia di Siena</t>
-  </si>
-  <si>
-    <t>A madonna Nera priora delle mantellate di Santo Domenico, quando essa Caterina era alla rocca d'Agnolino</t>
+    <t>A frate Bartolomeo Dominici, e a frate Tomaso d'Antonio dell'ordine de'predicatori quando erano a Pisa</t>
+  </si>
+  <si>
+    <t>A Gabriele di Divino Piccolomini</t>
   </si>
   <si>
     <t>A frate Bartolommeo dell'ordine de'predicatori, in Fiorenza</t>
   </si>
   <si>
-    <t>A frate Bartolomeo Dominici, e a frate Tomaso d'Antonio dell'ordine de'predicatori quando erano a Pisa</t>
-  </si>
-  <si>
-    <t>A Gabriele di Divino Piccolomini</t>
+    <t>A Ipolito degli Ubertini di Firenze</t>
+  </si>
+  <si>
+    <t>A Niccolo Soderini in Firenze</t>
   </si>
   <si>
     <t>A monna Giovanna e altre figliuole in Siena</t>
   </si>
   <si>
-    <t>A Ipolito degli Ubertini di Firenze</t>
+    <t>Alla Reina di Napoli</t>
   </si>
   <si>
     <t>A Bartolomeo e Jacomo, eremiti in campo santo in Pisa</t>
@@ -620,37 +632,46 @@
     <t>A misser Pietro marchese del Monte</t>
   </si>
   <si>
-    <t>Alla Reina di Napoli</t>
-  </si>
-  <si>
-    <t>A Niccolo Soderini in Firenze</t>
+    <t>Ad Angelo da Ricasoli</t>
+  </si>
+  <si>
+    <t>A misser Matteo Rettore della Chiesa della misericordia di Siena, mentre che essa era a Pisa</t>
   </si>
   <si>
     <t>A frate Tomaso della Fonte dell'ordine de' predicatori in Siena</t>
   </si>
   <si>
-    <t>A misser Matteo Rettore della Chiesa della misericordia di Siena, mentre che essa era a Pisa</t>
+    <t>A misser Giovanni condottiero, e capo della compagnia che venne nel tempo della fame</t>
   </si>
   <si>
     <t>A don Giovanni de' Sabbatini da Bologna monaco dell'ordine della Certosa nel monasterio di Belriguardo, presso a Siena, quand'ella era a Pisa</t>
   </si>
   <si>
-    <t>Ad Angelo da Ricasoli</t>
-  </si>
-  <si>
-    <t>A misser Giovanni condottiero, e capo della compagnia che venne nel tempo della fame</t>
-  </si>
-  <si>
-    <t>Ai signori difensori della città di Siena</t>
+    <t>A Sano di Maco, essendo la Santa in Pisa</t>
+  </si>
+  <si>
+    <t>Lettere_073</t>
   </si>
   <si>
     <t>A monna Pavola a Fiesole</t>
   </si>
   <si>
-    <t>A Sano di Maco, essendo la Santa in Pisa</t>
-  </si>
-  <si>
-    <t>Lettere_073</t>
+    <t>Lettere_075</t>
+  </si>
+  <si>
+    <t>Alla Reina d'Ungheria, cioe alla madre del Re</t>
+  </si>
+  <si>
+    <t>Lettere_081</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo Dominici dell'ordine de' predicatori quando era biblico di Fiorenza</t>
+  </si>
+  <si>
+    <t>Lettere_079</t>
+  </si>
+  <si>
+    <t>A Sano di Maco, essendo la Santa a Pisa la prima volta</t>
   </si>
   <si>
     <t>Lettere_074</t>
@@ -659,10 +680,10 @@
     <t>A Pietro marchese del Monte</t>
   </si>
   <si>
-    <t>Lettere_075</t>
-  </si>
-  <si>
-    <t>Alla Reina d'Ungheria, cioe alla madre del Re</t>
+    <t>Lettere_078</t>
+  </si>
+  <si>
+    <t>A misser Pietro Gambacorti in Pisa</t>
   </si>
   <si>
     <t>Lettere_076</t>
@@ -677,28 +698,208 @@
     <t>A monna Nella, donna che fu di Niccolo Buonconti da Pisa</t>
   </si>
   <si>
-    <t>Lettere_078</t>
-  </si>
-  <si>
-    <t>A misser Pietro Gambacorti in Pisa</t>
-  </si>
-  <si>
-    <t>Lettere_079</t>
-  </si>
-  <si>
-    <t>A Sano di Maco, essendo la Santa a Pisa la prima volta</t>
-  </si>
-  <si>
     <t>Lettere_080</t>
   </si>
   <si>
     <t>A Giovanni Trenta, e a monna Giovanna sua donna da Lucca</t>
   </si>
   <si>
-    <t>Lettere_081</t>
-  </si>
-  <si>
-    <t>A frate Bartolomeo Dominici dell'ordine de' predicatori quando era biblico di Fiorenza</t>
+    <t>A monna Caterina, a monna Orsola, e altre donne in Pisa</t>
+  </si>
+  <si>
+    <t>A madonna Niera di Gherardo Gambacorti in Pisa</t>
+  </si>
+  <si>
+    <t>A Giovanni Perotti cuoiaio in Lucca</t>
+  </si>
+  <si>
+    <t>A' Vanni ed a Francesco, figliuoli di Niccolo de' Buonconti da Pisa</t>
+  </si>
+  <si>
+    <t>A prete Nino da Pisa</t>
+  </si>
+  <si>
+    <t>A frate Ranieri, in Cristo, di Santa Catarina de' frati predicatori in Pisa</t>
+  </si>
+  <si>
+    <t>A monna Nella, donna che fu di Niccolò de' Buonconti da Pisa; e a monna Catarina, donna di Gherardo di Niccolò predetto</t>
+  </si>
+  <si>
+    <t>A monna Franceschina, e a monna Caterina, e a due altre compagne spirituali in Lucca</t>
+  </si>
+  <si>
+    <t>A Giovanni Perotti cuoiaio da Lucca, e a monna Lippa sua donna</t>
+  </si>
+  <si>
+    <t>A monna Mellina, donna di Bartolomeo Balbani in Lucca</t>
+  </si>
+  <si>
+    <t>A monna Bartolomea, donna di Salvatico da Lucca</t>
+  </si>
+  <si>
+    <t>A frate Francesco Tebaldi di Fiorenza, essendo nell'Isola di Gorgona</t>
+  </si>
+  <si>
+    <t>A monna Colomba in Lucca</t>
+  </si>
+  <si>
+    <t>A frate Matteo Tolomei da Siena dell'ordine de' predicatori in Roma, ed a don Niccolo di Francia monaco di Certosa e Belriguardo</t>
+  </si>
+  <si>
+    <t>A Pietro marchese del Monte, Podestà di Siena</t>
+  </si>
+  <si>
+    <t>A Niccolo Soderini di Firenze</t>
+  </si>
+  <si>
+    <t>A frate Niccolo de' frati di Monteoliveto nel monasterio di Fiorenza</t>
+  </si>
+  <si>
+    <t>A un frate che usci dell'ordine</t>
+  </si>
+  <si>
+    <t>Agli anziani della città di Lucca</t>
+  </si>
+  <si>
+    <t>A certo monasterio di donne</t>
+  </si>
+  <si>
+    <t>A Francesco di Pipino sarto da Firenze</t>
+  </si>
+  <si>
+    <t>A monna Agnesa di Francesco sarto da Firenze</t>
+  </si>
+  <si>
+    <t>A Francesco di Pipino sarto da Firenze e a monna Agnesa sua donna</t>
+  </si>
+  <si>
+    <t>A Pietro marchese del Monte a S. Maria, quando era senatore di Siena</t>
+  </si>
+  <si>
+    <t>A Pietro Cardinale portuense</t>
+  </si>
+  <si>
+    <t>A suor Bartolomea della Seta, monaca del monasterio di Santo Stefano di Pisa</t>
+  </si>
+  <si>
+    <t>Al priore a fratelli della compagnia della Vergine Maria</t>
+  </si>
+  <si>
+    <t>A Gregorio XI</t>
+  </si>
+  <si>
+    <t>All'Arcivescovo d'Otranto</t>
+  </si>
+  <si>
+    <t>A don Giovanni Sabbatini da Bologna, e don Taddeo de' Malavolti da Siena, monaci della Certosa a Belriguardo</t>
+  </si>
+  <si>
+    <t>A suor Bartolomea della Seta, nel monasterio di Santo Stefano in Pisa</t>
+  </si>
+  <si>
+    <t>A Francesco di Pipino sarto da Firenze, e a monna Agnesa sua donna</t>
+  </si>
+  <si>
+    <t>A Tommaso d'Alviano</t>
+  </si>
+  <si>
+    <t>A monaci di Cervaia, e a fra Giovanni di Bindo, Niccolo di Ghida, ed altri suoi in Cristo figliuoli, de' frati di Monte Oliveto presso Siena</t>
+  </si>
+  <si>
+    <t>A misser Lorenzo del Pino da dottore in Decretali</t>
+  </si>
+  <si>
+    <t>A monna Franceschina in Lucca</t>
+  </si>
+  <si>
+    <t>A Niccolo da Osimo</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo Dominici dell'ordine de' frati predicatori in Asciano</t>
+  </si>
+  <si>
+    <t>A Niccolo da Vezzano, canonico di Bologna</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo Dominici, dell'ordine de' predicatori, in Asciano</t>
+  </si>
+  <si>
+    <t>A Stefano di Corrado Maconi</t>
+  </si>
+  <si>
+    <t>A maestro Jacomo medico in Asciano</t>
+  </si>
+  <si>
+    <t>Ad alcuni novizi, nel convento di Monte Oliveto a Perugia</t>
+  </si>
+  <si>
+    <t>A don Giovanni monaco della Certosa in Roma, il quale era tentato, e voleva andare al purgatorio di San Patrizio e non avendo licenzia, stava in molta afflizione di mente</t>
+  </si>
+  <si>
+    <t>A Stefano di Corrado Maconi, poverello d'ogni virtu</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo Dominici dell'ordine de' predicatori, quando predicava ad Asciano</t>
+  </si>
+  <si>
+    <t>A frate Bartolomeo Dominici dell'ordine de' predicatori, in Asciano</t>
+  </si>
+  <si>
+    <t>A Matteo di Tomuccio da Orvieto</t>
+  </si>
+  <si>
+    <t>A signori di Firenze</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua a Vignone</t>
+  </si>
+  <si>
+    <t>A monna Tora, figliuola di misser Pietro Gambacorti in Pisa</t>
+  </si>
+  <si>
+    <t>A suora Daniella da Orvieto, vestita dell'abito di Santo Domenico, la quale, non potendo seguire la sua grande penitenzia, era venuta in grande afflizione</t>
+  </si>
+  <si>
+    <t>A certi monasteri di Bologna</t>
+  </si>
+  <si>
+    <t>A misser Matteo Rettore della casa della misericordia in Siena</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua, dell'ordine de' predicatori, e a maestro Giovanni Terzo, dell'ordine de' frati eremiti di Santo Augustino, e a tutti gli altri loro compagni, quando erano a Vignone</t>
+  </si>
+  <si>
+    <t>A Catarina dello Spedaluccio, e a Giovanna di Capo</t>
+  </si>
+  <si>
+    <t>A suor Bartolomea della Seta, monaca nel monasterio di Santo Stefano in Pisa</t>
+  </si>
+  <si>
+    <t>A Nigi di Doccio Arzocchi</t>
+  </si>
+  <si>
+    <t>A suora Maddalena di Alessa nel monasterio di Santa Bonda presso a Siena</t>
+  </si>
+  <si>
+    <t>A monna Niera di Gherardo Gambacorti in Pisa</t>
+  </si>
+  <si>
+    <t>Alla Priora, e altre suore di Santa Maria delle vergini, e alla Priora di Santo Giorgio, e all'altre suore in Perugia</t>
+  </si>
+  <si>
+    <t>A frate Guglielmo a Lecceto, essendo essa Catarina a Fiorenza</t>
+  </si>
+  <si>
+    <t>A frate Lazzarino da Pisa de' frati minori</t>
+  </si>
+  <si>
+    <t>Agli otto della guerra, eletti pel comune di Firenze, ad istanza de' quali ando la Santa a Papa Gregorio XI</t>
+  </si>
+  <si>
+    <t>A Jacopo cardinale degli orsini. Costanza c'e data da amore; amore vero degli uomini dal conoscimento di noi consiglia clemenza verso gl'italiani ribelli</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua dell'ordine de' frati predicatori</t>
   </si>
 </sst>
 </file>
@@ -721,12 +922,18 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -740,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -754,6 +961,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -767,6 +977,10 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1619,10 +1833,10 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>76.0</v>
+        <v>73.0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>144</v>
@@ -1630,10 +1844,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>77.0</v>
+        <v>74.0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>145</v>
@@ -1641,10 +1855,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>146</v>
@@ -1652,10 +1866,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>78.0</v>
+        <v>76.0</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>147</v>
@@ -1663,10 +1877,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>148</v>
@@ -1674,10 +1888,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>81.0</v>
+        <v>78.0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>149</v>
@@ -1685,10 +1899,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
-        <v>82.0</v>
+        <v>79.0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>150</v>
@@ -1696,10 +1910,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>151</v>
@@ -1707,10 +1921,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>83.0</v>
+        <v>81.0</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>152</v>
@@ -1718,10 +1932,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>153</v>
@@ -1729,10 +1943,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>154</v>
@@ -1740,10 +1954,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>80.0</v>
+        <v>84.0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>155</v>
@@ -1751,10 +1965,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
-        <v>87.0</v>
+        <v>85.0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>156</v>
@@ -1762,10 +1976,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3">
-        <v>89.0</v>
+        <v>86.0</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>157</v>
@@ -1773,10 +1987,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>158</v>
@@ -1784,10 +1998,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3">
-        <v>90.0</v>
+        <v>88.0</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>159</v>
@@ -1795,10 +2009,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
-        <v>91.0</v>
+        <v>89.0</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>160</v>
@@ -1806,10 +2020,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>161</v>
@@ -1817,10 +2031,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3">
-        <v>93.0</v>
+        <v>91.0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>162</v>
@@ -1828,10 +2042,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3">
-        <v>94.0</v>
+        <v>92.0</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>163</v>
@@ -1839,10 +2053,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>164</v>
@@ -1850,10 +2064,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3">
-        <v>86.0</v>
+        <v>94.0</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>165</v>
@@ -1861,10 +2075,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3">
-        <v>97.0</v>
+        <v>95.0</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>166</v>
@@ -1872,10 +2086,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>167</v>
@@ -1883,10 +2097,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>168</v>
@@ -1894,10 +2108,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>169</v>
@@ -1905,10 +2119,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3">
-        <v>101.0</v>
+        <v>99.0</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>170</v>
@@ -1916,10 +2130,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3">
-        <v>102.0</v>
+        <v>100.0</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>171</v>
@@ -1927,10 +2141,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3">
-        <v>103.0</v>
+        <v>101.0</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>172</v>
@@ -1938,65 +2152,65 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3">
-        <v>104.0</v>
+        <v>102.0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
-        <v>105.0</v>
+        <v>103.0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B34" s="3">
-        <v>106.0</v>
+        <v>104.0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3">
-        <v>108.0</v>
+        <v>106.0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" s="3">
-        <v>98.0</v>
+        <v>107.0</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>176</v>
@@ -2004,10 +2218,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B38" s="3">
-        <v>110.0</v>
+        <v>108.0</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>177</v>
@@ -2015,10 +2229,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3">
-        <v>111.0</v>
+        <v>109.0</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>178</v>
@@ -2026,10 +2240,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3">
-        <v>112.0</v>
+        <v>110.0</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>179</v>
@@ -2037,10 +2251,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3">
-        <v>96.0</v>
+        <v>111.0</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>180</v>
@@ -2048,10 +2262,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3">
-        <v>114.0</v>
+        <v>112.0</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>181</v>
@@ -2059,10 +2273,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B43" s="3">
-        <v>115.0</v>
+        <v>113.0</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>182</v>
@@ -2070,10 +2284,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3">
-        <v>116.0</v>
+        <v>114.0</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>183</v>
@@ -2081,10 +2295,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3">
-        <v>117.0</v>
+        <v>115.0</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>184</v>
@@ -2092,10 +2306,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3">
-        <v>118.0</v>
+        <v>116.0</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>185</v>
@@ -2103,10 +2317,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3">
-        <v>119.0</v>
+        <v>117.0</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>186</v>
@@ -2114,10 +2328,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48" s="3">
-        <v>120.0</v>
+        <v>118.0</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>187</v>
@@ -2125,10 +2339,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B49" s="3">
-        <v>121.0</v>
+        <v>119.0</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>188</v>
@@ -2136,10 +2350,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B50" s="3">
-        <v>122.0</v>
+        <v>120.0</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>189</v>
@@ -2147,10 +2361,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B51" s="3">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>190</v>
@@ -2158,10 +2372,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B52" s="3">
-        <v>109.0</v>
+        <v>122.0</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>191</v>
@@ -2169,10 +2383,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3">
-        <v>126.0</v>
+        <v>123.0</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>192</v>
@@ -2202,10 +2416,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B56" s="3">
-        <v>129.0</v>
+        <v>126.0</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>195</v>
@@ -2235,10 +2449,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B59" s="3">
-        <v>132.0</v>
+        <v>129.0</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>198</v>
@@ -2257,10 +2471,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B61" s="3">
-        <v>134.0</v>
+        <v>131.0</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>200</v>
@@ -2268,10 +2482,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B62" s="3">
-        <v>135.0</v>
+        <v>132.0</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>201</v>
@@ -2290,10 +2504,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B64" s="3">
-        <v>131.0</v>
+        <v>134.0</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>203</v>
@@ -2301,24 +2515,24 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B65" s="3">
-        <v>138.0</v>
+        <v>135.0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3">
-        <v>139.0</v>
+        <v>136.0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67">
@@ -2329,26 +2543,26 @@
         <v>137.0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B68" s="3">
-        <v>141.0</v>
+        <v>138.0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B69" s="3">
-        <v>136.0</v>
+        <v>139.0</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>207</v>
@@ -2367,10 +2581,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B71" s="3">
-        <v>123.0</v>
+        <v>141.0</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>209</v>
@@ -2378,10 +2592,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B72" s="3">
-        <v>144.0</v>
+        <v>142.0</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>210</v>
@@ -2389,24 +2603,24 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="B73" s="3">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="3">
+        <v>144.0</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B74" s="3">
-        <v>143.0</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="75">
@@ -2414,7 +2628,7 @@
         <v>213</v>
       </c>
       <c r="B75" s="3">
-        <v>148.0</v>
+        <v>145.0</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>214</v>
@@ -2425,7 +2639,7 @@
         <v>215</v>
       </c>
       <c r="B76" s="3">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>216</v>
@@ -2436,7 +2650,7 @@
         <v>217</v>
       </c>
       <c r="B77" s="3">
-        <v>150.0</v>
+        <v>147.0</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>218</v>
@@ -2447,7 +2661,7 @@
         <v>219</v>
       </c>
       <c r="B78" s="3">
-        <v>151.0</v>
+        <v>148.0</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>220</v>
@@ -2469,7 +2683,7 @@
         <v>223</v>
       </c>
       <c r="B80" s="3">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>224</v>
@@ -2480,7 +2694,7 @@
         <v>225</v>
       </c>
       <c r="B81" s="3">
-        <v>152.0</v>
+        <v>151.0</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>226</v>
@@ -2491,11 +2705,918 @@
         <v>227</v>
       </c>
       <c r="B82" s="3">
-        <v>146.0</v>
+        <v>152.0</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>228</v>
       </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$C$82"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="37.86"/>
+    <col customWidth="1" min="3" max="3" width="57.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>HYPERLINK("http://www.ilpalio.siena.it/5/Personaggi/SantaCaterina/Lettere","Letter number, 1860 (in Roman Numerals)")</f>
+        <v>Letter number, 1860 (in Roman Numerals)</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>153.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>155.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>156.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>157.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>158.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>159.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>161.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>162.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>164.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>165.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>154.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>166.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>167.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>169.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3">
+        <v>171.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <v>172.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>173.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>175.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <v>176.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3">
+        <v>178.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3">
+        <v>174.0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3">
+        <v>179.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3">
+        <v>177.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3">
+        <v>182.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3">
+        <v>184.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3">
+        <v>185.0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3">
+        <v>183.0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3">
+        <v>187.0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3">
+        <v>188.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3">
+        <v>186.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3">
+        <v>191.0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3">
+        <v>189.0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3">
+        <v>193.0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3">
+        <v>163.0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3">
+        <v>192.0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3">
+        <v>196.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3">
+        <v>181.0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3">
+        <v>198.0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3">
+        <v>199.0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="3">
+        <v>195.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3">
+        <v>202.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3">
+        <v>203.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3">
+        <v>201.0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3">
+        <v>205.0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3">
+        <v>206.0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3">
+        <v>204.0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3">
+        <v>208.0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="3">
+        <v>197.0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="3">
+        <v>207.0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3">
+        <v>211.0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="3">
+        <v>194.0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="3">
+        <v>212.0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="3">
+        <v>213.0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="3">
+        <v>215.0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="3">
+        <v>209.0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="3">
+        <v>210.0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="3">
+        <v>218.0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="3">
+        <v>219.0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="3">
+        <v>214.0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="5">
+        <v>201.0</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="3">
+        <v>216.0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="3">
+        <v>220.0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="3">
+        <v>224.0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="5">
+        <v>202.0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="3">
+        <v>217.0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="3">
+        <v>227.0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="3">
+        <v>229.0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="3">
+        <v>228.0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="5">
+        <v>203.0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="3">
+        <v>231.0</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="3">
+        <v>226.0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/LettersKey.xlsx
+++ b/LettersKey.xlsx
@@ -6,6 +6,9 @@
     <sheet state="visible" name="LibroPrimo" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="LibroSecondo" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="LibroTerzo" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="LibroQuarto" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="LibroQuinto" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="LibroSesto" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">LibroSecondo!$A$1:$C$82</definedName>
@@ -15,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="412">
   <si>
     <t>File Name</t>
   </si>
@@ -900,13 +903,364 @@
   </si>
   <si>
     <t>A frate Raimondo da Capua dell'ordine de' frati predicatori</t>
+  </si>
+  <si>
+    <t>Letter number, 1860 (in Roman Numerals)</t>
+  </si>
+  <si>
+    <t>A Buonaccorso di Lapo in Firenze, essendo la Santa in Avignone</t>
+  </si>
+  <si>
+    <t>Al Re di Francia</t>
+  </si>
+  <si>
+    <t>A Bartolo Usimbardi in Firenze</t>
+  </si>
+  <si>
+    <t>Al Duca d'Angio</t>
+  </si>
+  <si>
+    <t>A monna Giovanna di Corrado</t>
+  </si>
+  <si>
+    <t>All'Arcivescovo di Pisa</t>
+  </si>
+  <si>
+    <t>A Gregorio XV</t>
+  </si>
+  <si>
+    <t>A maestro Francesco, di maestro Bartolomeo, medico di Siena di gran fama</t>
+  </si>
+  <si>
+    <t>A un genovese del terzo ordine di San Francesco, che aveva preso una conversazione spirituale con una donna; per lo che pativa molte pene</t>
+  </si>
+  <si>
+    <t>Al Priore di Cervaja, presso Genova</t>
+  </si>
+  <si>
+    <t>A Bartolo Usimbardi, e a monna Orsa sua donna, e a Francesco di Pipino sarto e a monna Agnesa sua donna, da Firenze</t>
+  </si>
+  <si>
+    <t>A Francesco di Pipino sarto in Firenze e a monna Agnesa sua donna</t>
+  </si>
+  <si>
+    <t>A monna Lapa sua madre, pria iche tornasse da Vignone</t>
+  </si>
+  <si>
+    <t>A monna Agnesa, donna di Francesco di Pipino sarto</t>
+  </si>
+  <si>
+    <t>A Gregorio XI, essendo a Cornelo</t>
+  </si>
+  <si>
+    <t>A misser Trincio de' Trinci da Fuligno, e a Corrado suo fratello</t>
+  </si>
+  <si>
+    <t>A Pietro di missere Jacomo Attacusi de' Tolomei, da Siena</t>
+  </si>
+  <si>
+    <t>A M. Niccolo, Priore della Provincia di Toscana</t>
+  </si>
+  <si>
+    <t>A Conte di monna Agnola, e compagni in Firenze</t>
+  </si>
+  <si>
+    <t>A misser Ristoro di Pietro Canigiani in Firenze</t>
+  </si>
+  <si>
+    <t>All'abbate di Sant'Antimo</t>
+  </si>
+  <si>
+    <t>A M. Mariano, prete della misericordia, essendo a Monticchiello</t>
+  </si>
+  <si>
+    <t>A monna Tora, figliuola di misser Pietro Gambacorti da Pisa</t>
+  </si>
+  <si>
+    <t>A monna Montagna, gran serva di Dio, nel contado di Narni, in Capitona</t>
+  </si>
+  <si>
+    <t>A monna Jacoma di misser Trinci da Fuligno</t>
+  </si>
+  <si>
+    <t>A' prigioni il giovedi Santo in Siena</t>
+  </si>
+  <si>
+    <t>A misser Ristoro Canigiani</t>
+  </si>
+  <si>
+    <t>Agli anziani e consoli gonfalonieri di Bologna</t>
+  </si>
+  <si>
+    <t>A monna Alessa</t>
+  </si>
+  <si>
+    <t>A Francesco di Pipino sarto in Firenze, e a monna Agnesa sua donna</t>
+  </si>
+  <si>
+    <t>A una meretrice in Perugia, a petizione d'un suo fratello</t>
+  </si>
+  <si>
+    <t>A monna Alessa, essendo la Santa a Fiorenza</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua de' frati predicatori</t>
+  </si>
+  <si>
+    <t>A Frate Tommaso della Fonte dell'ordine de' predicatori</t>
+  </si>
+  <si>
+    <t>A Pietro Cardinale di Luna</t>
+  </si>
+  <si>
+    <t>A monna Alessia e a certe altre sue figliuole da Sana, il di della conversione di San Paolo</t>
+  </si>
+  <si>
+    <t>A frate Nniccolo di Nanni dell'ordine di Monte Oliveto, e a don Pietro di Giovanni di Viva monaco della Certosa a Maggiano presso a Siena</t>
+  </si>
+  <si>
+    <t>A Urbano VI</t>
+  </si>
+  <si>
+    <t>A frate Guglielmo, e a missere Matteo Rettore della Misericordia, e a frate Santi, e agli altri figliuoli</t>
+  </si>
+  <si>
+    <t>A monna Bartolomea di Domenico, in Roma</t>
+  </si>
+  <si>
+    <t>typo, colce --&gt; dolce</t>
+  </si>
+  <si>
+    <t>A Sano di Maco, e a tutti gli altri figliuoli in Siena</t>
+  </si>
+  <si>
+    <t>A don Giovanni dalle celle di Valle Ombrosa</t>
+  </si>
+  <si>
+    <t>A Stefano di Corrado Maconi poverello d'ogni virtu, essendo essa a Firenze</t>
+  </si>
+  <si>
+    <t>A misser Ristoro Canigiani da Firenze in Pistoia</t>
+  </si>
+  <si>
+    <t>A Sano di Maco, e agli altri figliuoli in Cristo, essendo essa in Firenze</t>
+  </si>
+  <si>
+    <t>A una donna che mormorava</t>
+  </si>
+  <si>
+    <t>A suor Daniella da Orvieto</t>
+  </si>
+  <si>
+    <t>A Giovanni da Parma in Roma</t>
+  </si>
+  <si>
+    <t>A tre cardinali italiani</t>
+  </si>
+  <si>
+    <t>A monna Agnesa donna di Francesco di Pipino sarto da Firenze</t>
+  </si>
+  <si>
+    <t>A monna Lodovica di Granello</t>
+  </si>
+  <si>
+    <t>A' signori difensori del popolo e comune di Siena</t>
+  </si>
+  <si>
+    <t>Al Conte di Fondi</t>
+  </si>
+  <si>
+    <t>A monna Costanza, donna che fu di Niccolo Soderini in Firenze</t>
+  </si>
+  <si>
+    <t>A don Petro da Milano dell'ordine della Certosa</t>
+  </si>
+  <si>
+    <t>A Sano di Maco, e a tutti gli altri suoi in Cristo figliuoli, secolari in Siena</t>
+  </si>
+  <si>
+    <t>A Stefano di Corrado Maconi, ignorante e ingratissimo figliuolo</t>
+  </si>
+  <si>
+    <t>Al Priore, e fratelli della compagnia della disciplina della Vergine Maria dell'ospidale di Siena</t>
+  </si>
+  <si>
+    <t>A don Giovanni monaco delle celle di Valle Ombrosa, essendo richiesto da Papa Urbano VI</t>
+  </si>
+  <si>
+    <t>Al Priore di Gorgona dell'ordine della Certosa in Pisa</t>
+  </si>
+  <si>
+    <t>A frate Tommaso d'Antonio da Siena dell'ordine de' frati predicatori</t>
+  </si>
+  <si>
+    <t>A frate Guglielmo d'Inghilterra e frate Antonio da Nizza a Lecceto</t>
+  </si>
+  <si>
+    <t>A frate Andrea da Lucca, a frate Baldo, e a frate Lando servi di Dio in Spoleto, essendo richiesti dal Santo Padre</t>
+  </si>
+  <si>
+    <t>A frate Antonio da Nizza de' frati eremitani di Sant'Agostino al convento di Liccieto di Siena</t>
+  </si>
+  <si>
+    <t>A Stefano di Corrado, suo indignissimo ed ingrato figliuolo, essendo essa in Roma</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua dell'ordine di Santo Domenico in Pisa</t>
+  </si>
+  <si>
+    <t>A don Pietro da Milano dell'ordine della Certosa</t>
+  </si>
+  <si>
+    <t>A Pietro di Giovanni, e a Stefano di Corrado insieme, essendo ella a Roma</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua dell'ordine di Santo Domenico</t>
+  </si>
+  <si>
+    <t>A Bonaventura Cardinale da Padoa</t>
+  </si>
+  <si>
+    <t>A don Cristofano monaco di Certosa del monastero di San Martino di Napoli</t>
+  </si>
+  <si>
+    <t>Alla Priora e monache di Santa Agnesa, allato a Monte Pulciano</t>
+  </si>
+  <si>
+    <t>A' signori Priori dell'arti, e gonfaloniere di giustizia del popolo e del comune di Firenze</t>
+  </si>
+  <si>
+    <t>A missere Andreasso Cavalcabuoi allora senatore di Siena</t>
+  </si>
+  <si>
+    <t>A'signori Priori del popolo, e comune di Perugia</t>
+  </si>
+  <si>
+    <t>A monna Agnesa da Toscanella serva di Dio, di grandissima penitenzia</t>
+  </si>
+  <si>
+    <t>Ad Angelo eletto Vescovo castellano</t>
+  </si>
+  <si>
+    <t>A don Roberto da Napoli</t>
+  </si>
+  <si>
+    <t>A Rainaldo da Capua, di sottile ingegno, in Napoli, investigatore de' misteri di Dio, e della santa scrittura</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capua de' predicatori in Genova</t>
+  </si>
+  <si>
+    <t>Alla contessa Giovanna di Mileto e di Terra Nuova in Napoli</t>
+  </si>
+  <si>
+    <t>Ad Urbano VI</t>
+  </si>
+  <si>
+    <t>Al Conte Alberico da Balbiano capitano generale della compagnia di San Giorgio e altri caporali</t>
+  </si>
+  <si>
+    <t>Alla Reina Giovanna di Napoli</t>
+  </si>
+  <si>
+    <t>A' signori Banderesi, e quattro buoni uomini mantenitori della Repubblica di Roma</t>
+  </si>
+  <si>
+    <t>A madonna Lariella donna di misser Cieccolo Caracciolo di Napoli</t>
+  </si>
+  <si>
+    <t>A monna Catella, e monna Cecia Vocata Planula, e monna Catarina Dentice di Napoli</t>
+  </si>
+  <si>
+    <t>A madonna Pentella, maritata in Napoli, serva di Cristo</t>
+  </si>
+  <si>
+    <t>A madonna Orietta Scotta, alla Croce di Canneto in Genova</t>
+  </si>
+  <si>
+    <t>A tre donne napoletane, spirituali</t>
+  </si>
+  <si>
+    <t>Al Re d'Ungaria</t>
+  </si>
+  <si>
+    <t>A maestro Andrea di Vanni, dipintore, essendo capitano del popolo di Siena</t>
+  </si>
+  <si>
+    <t>A Leonardo Frescobaldi da Firenze</t>
+  </si>
+  <si>
+    <t>A Peronella figliuola di Masello Pepe di Napoli</t>
+  </si>
+  <si>
+    <t>A una donna napoletana grande colla Reina</t>
+  </si>
+  <si>
+    <t>Alla Reina che fu di Napoli</t>
+  </si>
+  <si>
+    <t>A maestro Andrea di Vanni, dipintore</t>
+  </si>
+  <si>
+    <t>A' magnifici signori difensori del popolo, e comune di Siena</t>
+  </si>
+  <si>
+    <t>A Stefano di Corrado Maconi, essendo essa a Roma. e questa fu l'ultima a lui</t>
+  </si>
+  <si>
+    <t>A messer Carlo della Pace, il quale poi fu Re di Puglia ovvero di Napoli</t>
+  </si>
+  <si>
+    <t>A maestro Raimondo da Capua dell'ordine de' predicatori</t>
+  </si>
+  <si>
+    <t>A don Giovanni monaco nelle celle di Valle Umbrosa</t>
+  </si>
+  <si>
+    <t>A frate Antonio da Nizza dell'ordine degli heremitani al Lecceto</t>
+  </si>
+  <si>
+    <t>Alla Priora et monache del monasterio di Sancta Agnese da Monte Pulciano</t>
+  </si>
+  <si>
+    <t>Alla compagnia della disciplina della Vergine Maria in Siena</t>
+  </si>
+  <si>
+    <t>A messer Buonaventura da Padova Cardinale de' frati heremitani</t>
+  </si>
+  <si>
+    <t>A frate Raimondo da Capova singulare padre dell'anima sua, del ordine de predicatori</t>
+  </si>
+  <si>
+    <t>A misser Bartolomeo della Pace</t>
+  </si>
+  <si>
+    <t>Sine Titulo</t>
+  </si>
+  <si>
+    <t>A tre donne vedove spirituali di Napoli</t>
+  </si>
+  <si>
+    <t>A Francesco di Pipino sarto in Firenze</t>
+  </si>
+  <si>
+    <t>A Bartolo Usimbardi et Francesco di Pipino</t>
+  </si>
+  <si>
+    <t>A Piero Canigiani da Fiorenze</t>
+  </si>
+  <si>
+    <t>Alla Priora et monache di Santa Agnesa da Monte Pulciano</t>
+  </si>
+  <si>
+    <t>A' signori priori dell'arti et il gonfaloniere della giustizia della città di Firenze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -921,6 +1275,11 @@
       <color rgb="FF0000FF"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -947,7 +1306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -962,6 +1321,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -981,6 +1346,18 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -3624,4 +4001,1838 @@
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="37.86"/>
+    <col customWidth="1" min="3" max="3" width="63.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>232.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>233.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>234.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>235.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>236.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>237.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>238.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>241.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>243.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>239.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>244.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>245.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>246.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>247.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>248.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>249.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <v>251.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>252.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>253.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>254.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <v>255.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3">
+        <v>256.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3">
+        <v>257.0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3">
+        <v>258.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>259.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3">
+        <v>261.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3">
+        <v>262.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3">
+        <v>263.0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3">
+        <v>264.0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3">
+        <v>266.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3">
+        <v>267.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3">
+        <v>268.0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3">
+        <v>269.0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3">
+        <v>270.0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3">
+        <v>271.0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3">
+        <v>272.0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3">
+        <v>273.0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3">
+        <v>274.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3">
+        <v>276.0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3">
+        <v>277.0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3">
+        <v>242.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="3">
+        <v>279.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3">
+        <v>280.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3">
+        <v>281.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3">
+        <v>282.0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3">
+        <v>283.0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3">
+        <v>284.0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3">
+        <v>285.0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3">
+        <v>286.0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="3">
+        <v>287.0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="3">
+        <v>289.0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="3">
+        <v>265.0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="3">
+        <v>291.0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="3">
+        <v>292.0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="3">
+        <v>278.0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="3">
+        <v>294.0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="3">
+        <v>295.0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="3">
+        <v>296.0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="3">
+        <v>297.0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="3">
+        <v>298.0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="3">
+        <v>299.0</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="3">
+        <v>301.0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="3">
+        <v>302.0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="3">
+        <v>303.0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="3">
+        <v>293.0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="3">
+        <v>305.0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="3">
+        <v>306.0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="3">
+        <v>307.0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="3">
+        <v>308.0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="3">
+        <v>309.0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="3">
+        <v>288.0</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="3">
+        <v>304.0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="37.86"/>
+    <col customWidth="1" min="3" max="3" width="93.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>311.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>312.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>313.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>314.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>315.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>316.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>317.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>318.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>319.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>321.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>322.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>323.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>324.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3">
+        <v>325.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>326.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3">
+        <v>327.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>328.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>329.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>330.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3">
+        <v>331.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3">
+        <v>332.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3">
+        <v>333.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3">
+        <v>334.0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3">
+        <v>335.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3">
+        <v>336.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3">
+        <v>337.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3">
+        <v>338.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3">
+        <v>339.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3">
+        <v>340.0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="3">
+        <v>341.0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3">
+        <v>342.0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3">
+        <v>343.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3">
+        <v>344.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3">
+        <v>345.0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3">
+        <v>346.0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3">
+        <v>347.0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3">
+        <v>348.0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="3">
+        <v>349.0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3">
+        <v>350.0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="3">
+        <v>351.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="3">
+        <v>352.0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="3">
+        <v>353.0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="3">
+        <v>354.0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="3">
+        <v>355.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="3">
+        <v>356.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="3">
+        <v>357.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="3">
+        <v>358.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="3">
+        <v>359.0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="3">
+        <v>360.0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="3">
+        <v>361.0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="3">
+        <v>362.0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="3">
+        <v>363.0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="3">
+        <v>364.0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="3">
+        <v>365.0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="3">
+        <v>366.0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3">
+        <v>367.0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="3">
+        <v>368.0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="3">
+        <v>369.0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="3">
+        <v>370.0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="3">
+        <v>371.0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="3">
+        <v>372.0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="3">
+        <v>373.0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="37.86"/>
+    <col customWidth="1" min="3" max="3" width="71.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>